--- a/20180126_SmartCut/LinearCut/beam_3p_opti.xlsx
+++ b/20180126_SmartCut/LinearCut/beam_3p_opti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="78">
   <si>
     <t>樓層</t>
   </si>
@@ -205,10 +205,13 @@
     <t>3-#10</t>
   </si>
   <si>
+    <t>2-#8</t>
+  </si>
+  <si>
     <t>2-#10</t>
   </si>
   <si>
-    <t>2-#8</t>
+    <t>2-#11</t>
   </si>
   <si>
     <t>5-#11</t>
@@ -729,22 +732,22 @@
         <v>43</v>
       </c>
       <c r="J4">
-        <v>1.686</v>
+        <v>238</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>168.6</v>
       </c>
       <c r="L4">
-        <v>4.364</v>
+        <v>198.4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q4">
         <v>685</v>
@@ -766,8 +769,8 @@
       <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" t="s">
-        <v>53</v>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>53</v>
@@ -801,19 +804,19 @@
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
         <v>45</v>
       </c>
       <c r="J7">
-        <v>2.38</v>
+        <v>208.3</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>178.5000000000001</v>
       </c>
       <c r="L7">
-        <v>3.67</v>
+        <v>218.2</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -845,22 +848,22 @@
         <v>43</v>
       </c>
       <c r="J8">
-        <v>1.737</v>
+        <v>153.7</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="L8">
-        <v>2.763</v>
+        <v>156.8</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q8">
         <v>525</v>
@@ -882,8 +885,8 @@
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>43</v>
@@ -899,8 +902,8 @@
       <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>53</v>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>53</v>
@@ -923,13 +926,13 @@
         <v>43</v>
       </c>
       <c r="J11">
-        <v>1.137</v>
+        <v>173.7</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>129.3</v>
       </c>
       <c r="L11">
-        <v>3.363</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -955,28 +958,28 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
         <v>43</v>
       </c>
       <c r="J12">
-        <v>2.399</v>
+        <v>180</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>208.8999999999999</v>
       </c>
       <c r="L12">
-        <v>3.676</v>
+        <v>218.6</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12">
         <v>695</v>
@@ -998,8 +1001,8 @@
       <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>63</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
@@ -1016,7 +1019,7 @@
         <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -1039,13 +1042,13 @@
         <v>45</v>
       </c>
       <c r="J15">
-        <v>1.4</v>
+        <v>180</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>238.7</v>
       </c>
       <c r="L15">
-        <v>4.675</v>
+        <v>188.8</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1077,22 +1080,22 @@
         <v>43</v>
       </c>
       <c r="J16">
-        <v>1.373</v>
+        <v>196.2</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="L16">
-        <v>4.002000000000001</v>
+        <v>175.3</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q16">
         <v>620</v>
@@ -1115,7 +1118,7 @@
         <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1132,7 +1135,7 @@
         <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
         <v>44</v>
@@ -1155,13 +1158,13 @@
         <v>45</v>
       </c>
       <c r="J19">
-        <v>0.981</v>
+        <v>166.7</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>195.5000000000001</v>
       </c>
       <c r="L19">
-        <v>4.394</v>
+        <v>175.3</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1193,22 +1196,22 @@
         <v>48</v>
       </c>
       <c r="J20">
-        <v>1.5</v>
+        <v>190</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>158.8999999999999</v>
       </c>
       <c r="L20">
-        <v>3.575</v>
+        <v>158.6</v>
       </c>
       <c r="N20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q20">
         <v>620</v>
@@ -1231,7 +1234,7 @@
         <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
         <v>50</v>
@@ -1247,8 +1250,8 @@
       <c r="G22" t="s">
         <v>46</v>
       </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="H22" t="s">
+        <v>63</v>
       </c>
       <c r="I22" t="s">
         <v>43</v>
@@ -1271,13 +1274,13 @@
         <v>43</v>
       </c>
       <c r="J23">
-        <v>1.8</v>
+        <v>160</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>169.1</v>
       </c>
       <c r="L23">
-        <v>3.274999999999999</v>
+        <v>178.3999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1309,22 +1312,22 @@
         <v>48</v>
       </c>
       <c r="J24">
-        <v>1.585</v>
+        <v>218</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>138.7</v>
       </c>
       <c r="L24">
-        <v>3.865</v>
+        <v>188.3</v>
       </c>
       <c r="N24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q24">
         <v>620</v>
@@ -1346,8 +1349,8 @@
       <c r="G25" t="s">
         <v>48</v>
       </c>
-      <c r="H25" t="s">
-        <v>50</v>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>50</v>
@@ -1363,8 +1366,8 @@
       <c r="G26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>46</v>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>47</v>
@@ -1387,13 +1390,13 @@
         <v>43</v>
       </c>
       <c r="J27">
-        <v>0.9909999999999999</v>
+        <v>198.2</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>148.6</v>
       </c>
       <c r="L27">
-        <v>4.459000000000001</v>
+        <v>198.2</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -1425,22 +1428,22 @@
         <v>49</v>
       </c>
       <c r="J28">
-        <v>1.785</v>
+        <v>208.3</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>218.2</v>
       </c>
       <c r="L28">
-        <v>4.265</v>
+        <v>178.4999999999999</v>
       </c>
       <c r="N28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q28">
         <v>685</v>
@@ -1462,11 +1465,11 @@
       <c r="G29" t="s">
         <v>50</v>
       </c>
-      <c r="H29" t="s">
-        <v>63</v>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -1497,19 +1500,19 @@
         <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
         <v>46</v>
       </c>
       <c r="J31">
-        <v>2.38</v>
+        <v>178.5</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>218.2</v>
       </c>
       <c r="L31">
-        <v>3.669999999999999</v>
+        <v>208.3</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -1535,28 +1538,28 @@
         <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
         <v>45</v>
       </c>
       <c r="J32">
-        <v>3.596</v>
+        <v>280.9</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>536.2</v>
       </c>
       <c r="L32">
-        <v>7.754</v>
+        <v>317.9</v>
       </c>
       <c r="N32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q32">
         <v>1220</v>
@@ -1613,19 +1616,19 @@
         <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s">
         <v>44</v>
       </c>
       <c r="J35">
-        <v>3.104</v>
+        <v>369.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>397.8999999999999</v>
       </c>
       <c r="L35">
-        <v>8.246</v>
+        <v>367.6</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -1651,28 +1654,28 @@
         <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
         <v>43</v>
       </c>
       <c r="J36">
-        <v>1.767</v>
+        <v>166.9</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>117.4</v>
       </c>
       <c r="L36">
-        <v>2.808</v>
+        <v>173.2</v>
       </c>
       <c r="N36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q36">
         <v>540</v>
@@ -1695,7 +1698,7 @@
         <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
         <v>43</v>
@@ -1712,7 +1715,7 @@
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
         <v>45</v>
@@ -1735,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="J39">
-        <v>0.7849999999999999</v>
+        <v>147.2</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>156.3</v>
       </c>
       <c r="L39">
-        <v>3.79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -1773,22 +1776,22 @@
         <v>43</v>
       </c>
       <c r="J40">
-        <v>1.6</v>
+        <v>140</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="L40">
-        <v>2.899999999999999</v>
+        <v>170</v>
       </c>
       <c r="N40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q40">
         <v>540</v>
@@ -1810,8 +1813,8 @@
       <c r="G41" t="s">
         <v>51</v>
       </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>63</v>
       </c>
       <c r="I41" t="s">
         <v>43</v>
@@ -1827,8 +1830,8 @@
       <c r="G42" t="s">
         <v>45</v>
       </c>
-      <c r="H42" t="s">
-        <v>52</v>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>52</v>
@@ -1851,13 +1854,13 @@
         <v>45</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>149.9999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -1883,28 +1886,28 @@
         <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s">
         <v>45</v>
       </c>
       <c r="J44">
-        <v>2.5</v>
+        <v>320</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>442.6999999999999</v>
       </c>
       <c r="L44">
-        <v>8.074999999999999</v>
+        <v>294.8000000000001</v>
       </c>
       <c r="N44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q44">
         <v>1160</v>
@@ -1961,19 +1964,19 @@
         <v>44</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
         <v>44</v>
       </c>
       <c r="J47">
-        <v>4.185</v>
+        <v>170</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>632.1</v>
       </c>
       <c r="L47">
-        <v>6.390000000000001</v>
+        <v>255.4</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -2005,22 +2008,22 @@
         <v>48</v>
       </c>
       <c r="J48">
-        <v>1.385</v>
+        <v>158.3</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>148.3999999999999</v>
       </c>
       <c r="L48">
-        <v>3.265000000000001</v>
+        <v>158.3000000000001</v>
       </c>
       <c r="N48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q48">
         <v>540</v>
@@ -2043,7 +2046,7 @@
         <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I49" t="s">
         <v>49</v>
@@ -2059,8 +2062,8 @@
       <c r="G50" t="s">
         <v>50</v>
       </c>
-      <c r="H50">
-        <v>0</v>
+      <c r="H50" t="s">
+        <v>64</v>
       </c>
       <c r="I50" t="s">
         <v>49</v>
@@ -2077,19 +2080,19 @@
         <v>48</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
       </c>
       <c r="J51">
-        <v>1.682</v>
+        <v>158.3</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>148.3999999999999</v>
       </c>
       <c r="L51">
-        <v>2.968</v>
+        <v>158.3000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -2121,22 +2124,22 @@
         <v>48</v>
       </c>
       <c r="J52">
-        <v>1.494</v>
+        <v>219.1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>169.3</v>
       </c>
       <c r="L52">
-        <v>4.481</v>
+        <v>209.1</v>
       </c>
       <c r="N52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q52">
         <v>685</v>
@@ -2158,8 +2161,8 @@
       <c r="G53" t="s">
         <v>49</v>
       </c>
-      <c r="H53" t="s">
-        <v>50</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>50</v>
@@ -2175,8 +2178,8 @@
       <c r="G54" t="s">
         <v>47</v>
       </c>
-      <c r="H54" t="s">
-        <v>53</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
@@ -2199,13 +2202,13 @@
         <v>43</v>
       </c>
       <c r="J55">
-        <v>1.195</v>
+        <v>209.1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>179.3</v>
       </c>
       <c r="L55">
-        <v>4.779999999999999</v>
+        <v>209.1</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -2237,22 +2240,22 @@
         <v>43</v>
       </c>
       <c r="J56">
-        <v>1.179</v>
+        <v>157.1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>136.8</v>
       </c>
       <c r="L56">
-        <v>3.221</v>
+        <v>146.1</v>
       </c>
       <c r="N56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q56">
         <v>525</v>
@@ -2275,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I57" t="s">
         <v>46</v>
@@ -2315,13 +2318,13 @@
         <v>43</v>
       </c>
       <c r="J59">
-        <v>1.473</v>
+        <v>147.3</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>127.1</v>
       </c>
       <c r="L59">
-        <v>2.927</v>
+        <v>165.6000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -2353,22 +2356,22 @@
         <v>48</v>
       </c>
       <c r="J60">
-        <v>1.973</v>
+        <v>197.3</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>188.9</v>
       </c>
       <c r="L60">
-        <v>4.077</v>
+        <v>218.8</v>
       </c>
       <c r="N60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q60">
         <v>695</v>
@@ -2407,8 +2410,8 @@
       <c r="G62" t="s">
         <v>46</v>
       </c>
-      <c r="H62" t="s">
-        <v>53</v>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62" t="s">
         <v>53</v>
@@ -2431,13 +2434,13 @@
         <v>43</v>
       </c>
       <c r="J63">
-        <v>1.084</v>
+        <v>227.2</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>188.9</v>
       </c>
       <c r="L63">
-        <v>4.965999999999999</v>
+        <v>188.8999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -2463,28 +2466,28 @@
         <v>43</v>
       </c>
       <c r="H64" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I64" t="s">
         <v>43</v>
       </c>
       <c r="J64">
-        <v>3.245</v>
+        <v>226.2</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>403.1</v>
       </c>
       <c r="L64">
-        <v>5.605</v>
+        <v>255.7000000000001</v>
       </c>
       <c r="N64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O64" t="s">
+        <v>73</v>
+      </c>
+      <c r="P64" t="s">
         <v>72</v>
-      </c>
-      <c r="P64" t="s">
-        <v>71</v>
       </c>
       <c r="Q64">
         <v>1000</v>
@@ -2523,8 +2526,8 @@
       <c r="G66" t="s">
         <v>54</v>
       </c>
-      <c r="H66" t="s">
-        <v>61</v>
+      <c r="H66">
+        <v>0</v>
       </c>
       <c r="I66" t="s">
         <v>61</v>
@@ -2547,13 +2550,13 @@
         <v>45</v>
       </c>
       <c r="J67">
-        <v>1.475</v>
+        <v>226.2</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>481.8000000000001</v>
       </c>
       <c r="L67">
-        <v>7.375000000000001</v>
+        <v>177.0000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -2579,28 +2582,28 @@
         <v>43</v>
       </c>
       <c r="H68" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s">
         <v>43</v>
       </c>
       <c r="J68">
-        <v>3.346</v>
+        <v>236.2</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>423.1</v>
       </c>
       <c r="L68">
-        <v>5.904</v>
+        <v>265.7</v>
       </c>
       <c r="N68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="s">
         <v>72</v>
-      </c>
-      <c r="P68" t="s">
-        <v>71</v>
       </c>
       <c r="Q68">
         <v>1000</v>
@@ -2639,8 +2642,8 @@
       <c r="G70" t="s">
         <v>55</v>
       </c>
-      <c r="H70" t="s">
-        <v>61</v>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>55</v>
@@ -2657,19 +2660,19 @@
         <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s">
         <v>45</v>
       </c>
       <c r="J71">
-        <v>1.673</v>
+        <v>216.5</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>482.2</v>
       </c>
       <c r="L71">
-        <v>7.577</v>
+        <v>226.3</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -2701,22 +2704,22 @@
         <v>48</v>
       </c>
       <c r="J72">
-        <v>1.4</v>
+        <v>200</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>198.9</v>
       </c>
       <c r="L72">
-        <v>4.774999999999999</v>
+        <v>218.6</v>
       </c>
       <c r="N72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q72">
         <v>695</v>
@@ -2739,7 +2742,7 @@
         <v>48</v>
       </c>
       <c r="H73" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I73" t="s">
         <v>48</v>
@@ -2756,7 +2759,7 @@
         <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I74" t="s">
         <v>43</v>
@@ -2779,13 +2782,13 @@
         <v>43</v>
       </c>
       <c r="J75">
-        <v>1.1</v>
+        <v>190</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>238.7</v>
       </c>
       <c r="L75">
-        <v>5.074999999999999</v>
+        <v>188.8</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -2817,22 +2820,22 @@
         <v>43</v>
       </c>
       <c r="J76">
-        <v>1.686</v>
+        <v>228.1</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>178.5</v>
       </c>
       <c r="L76">
-        <v>4.364</v>
+        <v>198.4</v>
       </c>
       <c r="N76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q76">
         <v>685</v>
@@ -2854,8 +2857,8 @@
       <c r="G77" t="s">
         <v>43</v>
       </c>
-      <c r="H77" t="s">
-        <v>53</v>
+      <c r="H77">
+        <v>0</v>
       </c>
       <c r="I77" t="s">
         <v>53</v>
@@ -2889,19 +2892,19 @@
         <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s">
         <v>45</v>
       </c>
       <c r="J79">
-        <v>2.38</v>
+        <v>208.3</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>178.5000000000001</v>
       </c>
       <c r="L79">
-        <v>3.67</v>
+        <v>218.2</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -2933,22 +2936,22 @@
         <v>43</v>
       </c>
       <c r="J80">
-        <v>1.737</v>
+        <v>153.7</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="L80">
-        <v>2.763</v>
+        <v>156.8</v>
       </c>
       <c r="N80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q80">
         <v>525</v>
@@ -2970,8 +2973,8 @@
       <c r="G81" t="s">
         <v>53</v>
       </c>
-      <c r="H81">
-        <v>0</v>
+      <c r="H81" t="s">
+        <v>58</v>
       </c>
       <c r="I81" t="s">
         <v>43</v>
@@ -2987,8 +2990,8 @@
       <c r="G82" t="s">
         <v>47</v>
       </c>
-      <c r="H82" t="s">
-        <v>51</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82" t="s">
         <v>51</v>
@@ -3011,13 +3014,13 @@
         <v>43</v>
       </c>
       <c r="J83">
-        <v>1.337</v>
+        <v>173.7</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>129.3</v>
       </c>
       <c r="L83">
-        <v>3.163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -3043,28 +3046,28 @@
         <v>43</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I84" t="s">
         <v>43</v>
       </c>
       <c r="J84">
-        <v>2.399</v>
+        <v>210</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="L84">
-        <v>3.676</v>
+        <v>228.4999999999999</v>
       </c>
       <c r="N84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q84">
         <v>695</v>
@@ -3103,8 +3106,8 @@
       <c r="G86" t="s">
         <v>56</v>
       </c>
-      <c r="H86">
-        <v>0</v>
+      <c r="H86" t="s">
+        <v>61</v>
       </c>
       <c r="I86" t="s">
         <v>44</v>
@@ -3121,19 +3124,19 @@
         <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I87" t="s">
         <v>45</v>
       </c>
       <c r="J87">
-        <v>2.299</v>
+        <v>170</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>248.7</v>
       </c>
       <c r="L87">
-        <v>3.776</v>
+        <v>188.8</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -3165,22 +3168,22 @@
         <v>43</v>
       </c>
       <c r="J88">
-        <v>1.275</v>
+        <v>206</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>146.4</v>
       </c>
       <c r="L88">
-        <v>4.100000000000001</v>
+        <v>185.1000000000001</v>
       </c>
       <c r="N88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q88">
         <v>620</v>
@@ -3202,8 +3205,8 @@
       <c r="G89" t="s">
         <v>43</v>
       </c>
-      <c r="H89" t="s">
-        <v>46</v>
+      <c r="H89">
+        <v>0</v>
       </c>
       <c r="I89" t="s">
         <v>46</v>
@@ -3219,8 +3222,8 @@
       <c r="G90" t="s">
         <v>56</v>
       </c>
-      <c r="H90" t="s">
-        <v>57</v>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="I90" t="s">
         <v>56</v>
@@ -3243,13 +3246,13 @@
         <v>45</v>
       </c>
       <c r="J91">
-        <v>0.981</v>
+        <v>186.3</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>156.4</v>
       </c>
       <c r="L91">
-        <v>4.394</v>
+        <v>194.8</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -3281,22 +3284,22 @@
         <v>48</v>
       </c>
       <c r="J92">
-        <v>1.7</v>
+        <v>190</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>168.8000000000001</v>
       </c>
       <c r="L92">
-        <v>3.375</v>
+        <v>148.6999999999999</v>
       </c>
       <c r="N92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q92">
         <v>620</v>
@@ -3319,7 +3322,7 @@
         <v>49</v>
       </c>
       <c r="H93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I93" t="s">
         <v>62</v>
@@ -3359,13 +3362,13 @@
         <v>43</v>
       </c>
       <c r="J95">
-        <v>1.7</v>
+        <v>170</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>149.2</v>
       </c>
       <c r="L95">
-        <v>3.375</v>
+        <v>188.3</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -3397,22 +3400,22 @@
         <v>48</v>
       </c>
       <c r="J96">
-        <v>1.585</v>
+        <v>208.1</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>158.5</v>
       </c>
       <c r="L96">
-        <v>3.865</v>
+        <v>178.4</v>
       </c>
       <c r="N96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q96">
         <v>620</v>
@@ -3434,8 +3437,8 @@
       <c r="G97" t="s">
         <v>49</v>
       </c>
-      <c r="H97" t="s">
-        <v>62</v>
+      <c r="H97">
+        <v>0</v>
       </c>
       <c r="I97" t="s">
         <v>62</v>
@@ -3451,8 +3454,8 @@
       <c r="G98" t="s">
         <v>46</v>
       </c>
-      <c r="H98" t="s">
-        <v>58</v>
+      <c r="H98">
+        <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>46</v>
@@ -3475,13 +3478,13 @@
         <v>43</v>
       </c>
       <c r="J99">
-        <v>1.387</v>
+        <v>188.3</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>168.4</v>
       </c>
       <c r="L99">
-        <v>4.063000000000001</v>
+        <v>188.3</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -3513,22 +3516,22 @@
         <v>49</v>
       </c>
       <c r="J100">
-        <v>1.686</v>
+        <v>198.4</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>237.9999999999999</v>
       </c>
       <c r="L100">
-        <v>4.364</v>
+        <v>168.6</v>
       </c>
       <c r="N100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q100">
         <v>685</v>
@@ -3550,11 +3553,11 @@
       <c r="G101" t="s">
         <v>50</v>
       </c>
-      <c r="H101" t="s">
-        <v>63</v>
+      <c r="H101">
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -3585,19 +3588,19 @@
         <v>56</v>
       </c>
       <c r="H103" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I103" t="s">
         <v>56</v>
       </c>
       <c r="J103">
-        <v>2.38</v>
+        <v>198.4</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>188.4</v>
       </c>
       <c r="L103">
-        <v>3.669999999999999</v>
+        <v>218.2</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -3623,28 +3626,28 @@
         <v>45</v>
       </c>
       <c r="H104" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I104" t="s">
         <v>45</v>
       </c>
       <c r="J104">
-        <v>3.498</v>
+        <v>271.1</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>555.9</v>
       </c>
       <c r="L104">
-        <v>7.851999999999999</v>
+        <v>308</v>
       </c>
       <c r="N104" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O104" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P104" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q104">
         <v>1220</v>
@@ -3701,19 +3704,19 @@
         <v>44</v>
       </c>
       <c r="H107" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I107" t="s">
         <v>44</v>
       </c>
       <c r="J107">
-        <v>2.711</v>
+        <v>339.9</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="L107">
-        <v>8.638999999999999</v>
+        <v>288.1</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -3739,28 +3742,28 @@
         <v>43</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I108" t="s">
         <v>43</v>
       </c>
       <c r="J108">
-        <v>1.767</v>
+        <v>147.2</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>156.3</v>
       </c>
       <c r="L108">
-        <v>2.808</v>
+        <v>154</v>
       </c>
       <c r="N108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q108">
         <v>540</v>
@@ -3783,7 +3786,7 @@
         <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I109" t="s">
         <v>47</v>
@@ -3800,7 +3803,7 @@
         <v>44</v>
       </c>
       <c r="H110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I110" t="s">
         <v>44</v>
@@ -3823,13 +3826,13 @@
         <v>45</v>
       </c>
       <c r="J111">
-        <v>1.08</v>
+        <v>127.6</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>195.2</v>
       </c>
       <c r="L111">
-        <v>3.495</v>
+        <v>134.7</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -3855,28 +3858,28 @@
         <v>43</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I112" t="s">
         <v>43</v>
       </c>
       <c r="J112">
-        <v>1.8</v>
+        <v>130</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L112">
-        <v>2.7</v>
+        <v>170</v>
       </c>
       <c r="N112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q112">
         <v>540</v>
@@ -3898,8 +3901,8 @@
       <c r="G113" t="s">
         <v>58</v>
       </c>
-      <c r="H113">
-        <v>0</v>
+      <c r="H113" t="s">
+        <v>63</v>
       </c>
       <c r="I113" t="s">
         <v>47</v>
@@ -3915,8 +3918,8 @@
       <c r="G114" t="s">
         <v>44</v>
       </c>
-      <c r="H114" t="s">
-        <v>57</v>
+      <c r="H114">
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>57</v>
@@ -3939,13 +3942,13 @@
         <v>45</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>139.9999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -3971,28 +3974,28 @@
         <v>45</v>
       </c>
       <c r="H116" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I116" t="s">
         <v>45</v>
       </c>
       <c r="J116">
-        <v>2</v>
+        <v>309.9999999999999</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>461.9000000000001</v>
       </c>
       <c r="L116">
-        <v>8.574999999999999</v>
+        <v>285.6</v>
       </c>
       <c r="N116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q116">
         <v>1160</v>
@@ -4014,8 +4017,8 @@
       <c r="G117" t="s">
         <v>56</v>
       </c>
-      <c r="H117" t="s">
-        <v>61</v>
+      <c r="H117">
+        <v>0</v>
       </c>
       <c r="I117" t="s">
         <v>56</v>
@@ -4049,19 +4052,19 @@
         <v>44</v>
       </c>
       <c r="H119" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I119" t="s">
         <v>45</v>
       </c>
       <c r="J119">
-        <v>3.696</v>
+        <v>220</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>502.7000000000001</v>
       </c>
       <c r="L119">
-        <v>6.879</v>
+        <v>334.8</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -4093,22 +4096,22 @@
         <v>48</v>
       </c>
       <c r="J120">
-        <v>1.385</v>
+        <v>158.3</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>148.3999999999999</v>
       </c>
       <c r="L120">
-        <v>3.265000000000001</v>
+        <v>158.3000000000001</v>
       </c>
       <c r="N120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q120">
         <v>540</v>
@@ -4131,7 +4134,7 @@
         <v>49</v>
       </c>
       <c r="H121" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I121" t="s">
         <v>49</v>
@@ -4147,8 +4150,8 @@
       <c r="G122" t="s">
         <v>47</v>
       </c>
-      <c r="H122">
-        <v>0</v>
+      <c r="H122" t="s">
+        <v>63</v>
       </c>
       <c r="I122" t="s">
         <v>43</v>
@@ -4171,13 +4174,13 @@
         <v>43</v>
       </c>
       <c r="J123">
-        <v>1.781</v>
+        <v>158.3</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>148.3999999999999</v>
       </c>
       <c r="L123">
-        <v>2.869</v>
+        <v>158.3000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -4209,22 +4212,22 @@
         <v>48</v>
       </c>
       <c r="J124">
-        <v>1.494</v>
+        <v>219.1</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>179.2</v>
       </c>
       <c r="L124">
-        <v>4.481</v>
+        <v>199.2</v>
       </c>
       <c r="N124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q124">
         <v>685</v>
@@ -4246,8 +4249,8 @@
       <c r="G125" t="s">
         <v>49</v>
       </c>
-      <c r="H125" t="s">
-        <v>50</v>
+      <c r="H125">
+        <v>0</v>
       </c>
       <c r="I125" t="s">
         <v>50</v>
@@ -4263,8 +4266,8 @@
       <c r="G126" t="s">
         <v>46</v>
       </c>
-      <c r="H126" t="s">
-        <v>53</v>
+      <c r="H126">
+        <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>46</v>
@@ -4287,13 +4290,13 @@
         <v>43</v>
       </c>
       <c r="J127">
-        <v>1.195</v>
+        <v>199.2</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>189.2</v>
       </c>
       <c r="L127">
-        <v>4.779999999999999</v>
+        <v>209.1</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -4325,22 +4328,22 @@
         <v>43</v>
       </c>
       <c r="J128">
-        <v>1.277</v>
+        <v>167</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>126.9</v>
       </c>
       <c r="L128">
-        <v>3.123</v>
+        <v>146.1</v>
       </c>
       <c r="N128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q128">
         <v>525</v>
@@ -4363,7 +4366,7 @@
         <v>47</v>
       </c>
       <c r="H129" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I129" t="s">
         <v>53</v>
@@ -4403,13 +4406,13 @@
         <v>45</v>
       </c>
       <c r="J131">
-        <v>1.473</v>
+        <v>147.3</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>127.1</v>
       </c>
       <c r="L131">
-        <v>2.927</v>
+        <v>165.6000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -4441,22 +4444,22 @@
         <v>59</v>
       </c>
       <c r="J132">
-        <v>2.073</v>
+        <v>187.4</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>198.8</v>
       </c>
       <c r="L132">
-        <v>3.976999999999999</v>
+        <v>218.8</v>
       </c>
       <c r="N132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q132">
         <v>695</v>
@@ -4478,11 +4481,11 @@
       <c r="G133" t="s">
         <v>60</v>
       </c>
-      <c r="H133">
-        <v>0</v>
+      <c r="H133" t="s">
+        <v>65</v>
       </c>
       <c r="I133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -4495,8 +4498,8 @@
       <c r="G134" t="s">
         <v>49</v>
       </c>
-      <c r="H134" t="s">
-        <v>62</v>
+      <c r="H134">
+        <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>62</v>
@@ -4519,13 +4522,13 @@
         <v>48</v>
       </c>
       <c r="J135">
-        <v>1.379</v>
+        <v>227.2</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>188.9</v>
       </c>
       <c r="L135">
-        <v>4.670999999999999</v>
+        <v>188.8999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -4551,28 +4554,28 @@
         <v>43</v>
       </c>
       <c r="H136" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I136" t="s">
         <v>43</v>
       </c>
       <c r="J136">
-        <v>3.147</v>
+        <v>226.2</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>404.1</v>
       </c>
       <c r="L136">
-        <v>5.528</v>
+        <v>237.2000000000001</v>
       </c>
       <c r="N136" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O136" t="s">
+        <v>73</v>
+      </c>
+      <c r="P136" t="s">
         <v>72</v>
-      </c>
-      <c r="P136" t="s">
-        <v>71</v>
       </c>
       <c r="Q136">
         <v>1000</v>
@@ -4611,8 +4614,8 @@
       <c r="G138" t="s">
         <v>55</v>
       </c>
-      <c r="H138" t="s">
-        <v>61</v>
+      <c r="H138">
+        <v>0</v>
       </c>
       <c r="I138" t="s">
         <v>61</v>
@@ -4635,13 +4638,13 @@
         <v>45</v>
       </c>
       <c r="J139">
-        <v>1.672</v>
+        <v>265.5</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>384.6000000000001</v>
       </c>
       <c r="L139">
-        <v>7.003</v>
+        <v>217.3999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -4667,28 +4670,28 @@
         <v>43</v>
       </c>
       <c r="H140" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I140" t="s">
         <v>43</v>
       </c>
       <c r="J140">
-        <v>3.247</v>
+        <v>285.4</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>337.1</v>
       </c>
       <c r="L140">
-        <v>5.978</v>
+        <v>300</v>
       </c>
       <c r="N140" t="s">
+        <v>73</v>
+      </c>
+      <c r="O140" t="s">
+        <v>76</v>
+      </c>
+      <c r="P140" t="s">
         <v>72</v>
-      </c>
-      <c r="O140" t="s">
-        <v>75</v>
-      </c>
-      <c r="P140" t="s">
-        <v>71</v>
       </c>
       <c r="Q140">
         <v>1000</v>
@@ -4745,19 +4748,19 @@
         <v>45</v>
       </c>
       <c r="H143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I143" t="s">
         <v>45</v>
       </c>
       <c r="J143">
-        <v>1.673</v>
+        <v>236.2</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>426.3</v>
       </c>
       <c r="L143">
-        <v>7.552</v>
+        <v>259.9999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -4789,22 +4792,22 @@
         <v>48</v>
       </c>
       <c r="J144">
-        <v>1.5</v>
+        <v>210</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>188.9</v>
       </c>
       <c r="L144">
-        <v>4.675</v>
+        <v>218.6</v>
       </c>
       <c r="N144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q144">
         <v>695</v>
@@ -4827,7 +4830,7 @@
         <v>48</v>
       </c>
       <c r="H145" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I145" t="s">
         <v>48</v>
@@ -4844,7 +4847,7 @@
         <v>43</v>
       </c>
       <c r="H146" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I146" t="s">
         <v>43</v>
@@ -4867,13 +4870,13 @@
         <v>43</v>
       </c>
       <c r="J147">
-        <v>1.4</v>
+        <v>200</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>228.7</v>
       </c>
       <c r="L147">
-        <v>4.774999999999999</v>
+        <v>188.8</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -4905,22 +4908,22 @@
         <v>43</v>
       </c>
       <c r="J148">
-        <v>1.715</v>
+        <v>230.1</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="L148">
-        <v>4.234999999999999</v>
+        <v>187.4</v>
       </c>
       <c r="N148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q148">
         <v>685</v>
@@ -4942,8 +4945,8 @@
       <c r="G149" t="s">
         <v>43</v>
       </c>
-      <c r="H149" t="s">
-        <v>51</v>
+      <c r="H149">
+        <v>0</v>
       </c>
       <c r="I149" t="s">
         <v>51</v>
@@ -4959,8 +4962,8 @@
       <c r="G150" t="s">
         <v>56</v>
       </c>
-      <c r="H150">
-        <v>0</v>
+      <c r="H150" t="s">
+        <v>61</v>
       </c>
       <c r="I150" t="s">
         <v>44</v>
@@ -4983,13 +4986,13 @@
         <v>45</v>
       </c>
       <c r="J151">
-        <v>2.005</v>
+        <v>162</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>245.6000000000001</v>
       </c>
       <c r="L151">
-        <v>3.945</v>
+        <v>187.4</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -5015,28 +5018,28 @@
         <v>43</v>
       </c>
       <c r="H152" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I152" t="s">
         <v>43</v>
       </c>
       <c r="J152">
-        <v>1.737</v>
+        <v>143.7</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L152">
-        <v>2.613</v>
+        <v>171.3</v>
       </c>
       <c r="N152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P152" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q152">
         <v>525</v>
@@ -5075,8 +5078,8 @@
       <c r="G154" t="s">
         <v>45</v>
       </c>
-      <c r="H154" t="s">
-        <v>54</v>
+      <c r="H154">
+        <v>0</v>
       </c>
       <c r="I154" t="s">
         <v>54</v>
@@ -5099,13 +5102,13 @@
         <v>45</v>
       </c>
       <c r="J155">
-        <v>1.237</v>
+        <v>173.7</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>137.6</v>
       </c>
       <c r="L155">
-        <v>3.113</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -5137,22 +5140,22 @@
         <v>43</v>
       </c>
       <c r="J156">
-        <v>2.082</v>
+        <v>208.2</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>158.7</v>
       </c>
       <c r="L156">
-        <v>3.768000000000001</v>
+        <v>218.1000000000001</v>
       </c>
       <c r="N156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q156">
         <v>695</v>
@@ -5191,8 +5194,8 @@
       <c r="G158" t="s">
         <v>44</v>
       </c>
-      <c r="H158">
-        <v>0</v>
+      <c r="H158" t="s">
+        <v>55</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -5209,19 +5212,19 @@
         <v>45</v>
       </c>
       <c r="H159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
       </c>
       <c r="J159">
-        <v>2.281000000000001</v>
+        <v>158.6</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>247.9</v>
       </c>
       <c r="L159">
-        <v>3.569</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -5253,22 +5256,22 @@
         <v>43</v>
       </c>
       <c r="J160">
-        <v>1.5</v>
+        <v>210</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="L160">
-        <v>3.8</v>
+        <v>180</v>
       </c>
       <c r="N160" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O160" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P160" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q160">
         <v>620</v>
@@ -5290,8 +5293,8 @@
       <c r="G161" t="s">
         <v>47</v>
       </c>
-      <c r="H161" t="s">
-        <v>51</v>
+      <c r="H161">
+        <v>0</v>
       </c>
       <c r="I161" t="s">
         <v>51</v>
@@ -5307,8 +5310,8 @@
       <c r="G162" t="s">
         <v>56</v>
       </c>
-      <c r="H162">
-        <v>0</v>
+      <c r="H162" t="s">
+        <v>61</v>
       </c>
       <c r="I162" t="s">
         <v>44</v>
@@ -5325,19 +5328,19 @@
         <v>45</v>
       </c>
       <c r="H163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L163">
-        <v>3.3</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -5369,22 +5372,22 @@
         <v>45</v>
       </c>
       <c r="J164">
-        <v>1.354</v>
+        <v>193.5</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>127.2</v>
       </c>
       <c r="L164">
-        <v>3.621</v>
+        <v>176.8</v>
       </c>
       <c r="N164" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q164">
         <v>620</v>
@@ -5406,8 +5409,8 @@
       <c r="G165" t="s">
         <v>45</v>
       </c>
-      <c r="H165" t="s">
-        <v>52</v>
+      <c r="H165">
+        <v>0</v>
       </c>
       <c r="I165" t="s">
         <v>52</v>
@@ -5441,19 +5444,19 @@
         <v>45</v>
       </c>
       <c r="H167" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
       </c>
       <c r="J167">
-        <v>1.838</v>
+        <v>145.1</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>175.6</v>
       </c>
       <c r="L167">
-        <v>3.137</v>
+        <v>176.8</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -5485,22 +5488,22 @@
         <v>43</v>
       </c>
       <c r="J168">
-        <v>1.276</v>
+        <v>186.5</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>178.5</v>
       </c>
       <c r="L168">
-        <v>3.974</v>
+        <v>160.0000000000001</v>
       </c>
       <c r="N168" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O168" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P168" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q168">
         <v>620</v>
@@ -5523,7 +5526,7 @@
         <v>43</v>
       </c>
       <c r="H169" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I169" t="s">
         <v>46</v>
@@ -5540,7 +5543,7 @@
         <v>44</v>
       </c>
       <c r="H170" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I170" t="s">
         <v>44</v>
@@ -5563,13 +5566,13 @@
         <v>45</v>
       </c>
       <c r="J171">
-        <v>1.178</v>
+        <v>147.2</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>237.8</v>
       </c>
       <c r="L171">
-        <v>4.072</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -5601,22 +5604,22 @@
         <v>46</v>
       </c>
       <c r="J172">
-        <v>1.334</v>
+        <v>190.6</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>219.7</v>
       </c>
       <c r="L172">
-        <v>4.465999999999999</v>
+        <v>169.6999999999999</v>
       </c>
       <c r="N172" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O172" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P172" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q172">
         <v>685</v>
@@ -5638,8 +5641,8 @@
       <c r="G173" t="s">
         <v>46</v>
       </c>
-      <c r="H173" t="s">
-        <v>51</v>
+      <c r="H173">
+        <v>0</v>
       </c>
       <c r="I173" t="s">
         <v>51</v>
@@ -5673,19 +5676,19 @@
         <v>56</v>
       </c>
       <c r="H175" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I175" t="s">
         <v>56</v>
       </c>
       <c r="J175">
-        <v>2.106</v>
+        <v>162</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>228.3</v>
       </c>
       <c r="L175">
-        <v>3.694</v>
+        <v>189.6999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -5711,28 +5714,28 @@
         <v>45</v>
       </c>
       <c r="H176" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I176" t="s">
         <v>45</v>
       </c>
       <c r="J176">
-        <v>1.887</v>
+        <v>278.3</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>515.4999999999999</v>
       </c>
       <c r="L176">
-        <v>9.337999999999999</v>
+        <v>328.7000000000001</v>
       </c>
       <c r="N176" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O176" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P176" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q176">
         <v>1220</v>
@@ -5754,8 +5757,8 @@
       <c r="G177" t="s">
         <v>52</v>
       </c>
-      <c r="H177" t="s">
-        <v>61</v>
+      <c r="H177">
+        <v>0</v>
       </c>
       <c r="I177" t="s">
         <v>52</v>
@@ -5789,19 +5792,19 @@
         <v>44</v>
       </c>
       <c r="H179" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I179" t="s">
         <v>44</v>
       </c>
       <c r="J179">
-        <v>2.287</v>
+        <v>366.8</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>456.9</v>
       </c>
       <c r="L179">
-        <v>8.937999999999999</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -5833,22 +5836,22 @@
         <v>45</v>
       </c>
       <c r="J180">
-        <v>1.069</v>
+        <v>145.8</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>146.3</v>
       </c>
       <c r="L180">
-        <v>3.431</v>
+        <v>157.9</v>
       </c>
       <c r="N180" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O180" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P180" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q180">
         <v>540</v>
@@ -5871,7 +5874,7 @@
         <v>45</v>
       </c>
       <c r="H181" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I181" t="s">
         <v>45</v>
@@ -5905,19 +5908,19 @@
         <v>45</v>
       </c>
       <c r="H183" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I183" t="s">
         <v>45</v>
       </c>
       <c r="J183">
-        <v>1.75</v>
+        <v>155.6</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>126.6</v>
       </c>
       <c r="L183">
-        <v>2.75</v>
+        <v>167.8</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -5943,28 +5946,28 @@
         <v>43</v>
       </c>
       <c r="H184" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I184" t="s">
         <v>43</v>
       </c>
       <c r="J184">
-        <v>1.783</v>
+        <v>79.19999999999999</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>218.3</v>
       </c>
       <c r="L184">
-        <v>2.692</v>
+        <v>149.9999999999999</v>
       </c>
       <c r="N184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P184" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q184">
         <v>540</v>
@@ -5986,8 +5989,8 @@
       <c r="G185" t="s">
         <v>58</v>
       </c>
-      <c r="H185">
-        <v>0</v>
+      <c r="H185" t="s">
+        <v>58</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -6003,8 +6006,8 @@
       <c r="G186" t="s">
         <v>44</v>
       </c>
-      <c r="H186" t="s">
-        <v>57</v>
+      <c r="H186">
+        <v>0</v>
       </c>
       <c r="I186" t="s">
         <v>57</v>
@@ -6027,13 +6030,13 @@
         <v>45</v>
       </c>
       <c r="J187">
-        <v>1.089</v>
+        <v>158.5</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L187">
-        <v>3.386</v>
+        <v>139.9999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -6059,28 +6062,28 @@
         <v>45</v>
       </c>
       <c r="H188" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I188" t="s">
         <v>45</v>
       </c>
       <c r="J188">
-        <v>1.767</v>
+        <v>293.3</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>491.7</v>
       </c>
       <c r="L188">
-        <v>8.808</v>
+        <v>272.4999999999999</v>
       </c>
       <c r="N188" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O188" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P188" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q188">
         <v>1160</v>
@@ -6102,8 +6105,8 @@
       <c r="G189" t="s">
         <v>56</v>
       </c>
-      <c r="H189" t="s">
-        <v>55</v>
+      <c r="H189">
+        <v>0</v>
       </c>
       <c r="I189" t="s">
         <v>52</v>
@@ -6143,13 +6146,13 @@
         <v>44</v>
       </c>
       <c r="J191">
-        <v>2.061</v>
+        <v>206.1</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>528.9</v>
       </c>
       <c r="L191">
-        <v>8.513999999999999</v>
+        <v>322.5000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -6181,22 +6184,22 @@
         <v>43</v>
       </c>
       <c r="J192">
-        <v>1.1</v>
+        <v>160</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>160.0000000000001</v>
       </c>
       <c r="N192" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O192" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P192" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q192">
         <v>540</v>
@@ -6219,7 +6222,7 @@
         <v>43</v>
       </c>
       <c r="H193" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I193" t="s">
         <v>43</v>
@@ -6235,8 +6238,8 @@
       <c r="G194" t="s">
         <v>46</v>
       </c>
-      <c r="H194">
-        <v>0</v>
+      <c r="H194" t="s">
+        <v>63</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
@@ -6259,13 +6262,13 @@
         <v>43</v>
       </c>
       <c r="J195">
-        <v>1.6</v>
+        <v>140</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L195">
-        <v>2.8</v>
+        <v>150.0000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -6297,22 +6300,22 @@
         <v>48</v>
       </c>
       <c r="J196">
-        <v>1.685</v>
+        <v>188.3</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>168.4</v>
       </c>
       <c r="L196">
-        <v>3.765</v>
+        <v>188.3</v>
       </c>
       <c r="N196" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O196" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P196" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q196">
         <v>685</v>
@@ -6335,7 +6338,7 @@
         <v>49</v>
       </c>
       <c r="H197" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I197" t="s">
         <v>49</v>
@@ -6352,7 +6355,7 @@
         <v>43</v>
       </c>
       <c r="H198" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I198" t="s">
         <v>43</v>
@@ -6375,13 +6378,13 @@
         <v>43</v>
       </c>
       <c r="J199">
-        <v>0.9909999999999999</v>
+        <v>178.4</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>188.2</v>
       </c>
       <c r="L199">
-        <v>4.459</v>
+        <v>178.4</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -6413,22 +6416,22 @@
         <v>45</v>
       </c>
       <c r="J200">
-        <v>0.9719999999999999</v>
+        <v>145.7</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>106.7</v>
       </c>
       <c r="L200">
-        <v>3.003</v>
+        <v>145.1000000000001</v>
       </c>
       <c r="N200" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O200" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P200" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q200">
         <v>525</v>
@@ -6451,7 +6454,7 @@
         <v>45</v>
       </c>
       <c r="H201" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I201" t="s">
         <v>44</v>
@@ -6467,8 +6470,8 @@
       <c r="G202" t="s">
         <v>52</v>
       </c>
-      <c r="H202">
-        <v>0</v>
+      <c r="H202" t="s">
+        <v>61</v>
       </c>
       <c r="I202" t="s">
         <v>45</v>
@@ -6485,19 +6488,19 @@
         <v>45</v>
       </c>
       <c r="H203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I203" t="s">
         <v>45</v>
       </c>
       <c r="J203">
-        <v>1.555</v>
+        <v>116.6</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>135.8</v>
       </c>
       <c r="L203">
-        <v>2.42</v>
+        <v>145.1000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -6529,22 +6532,22 @@
         <v>48</v>
       </c>
       <c r="J204">
-        <v>1.884</v>
+        <v>188.4</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>198.4</v>
       </c>
       <c r="L204">
-        <v>4.165999999999999</v>
+        <v>218.2</v>
       </c>
       <c r="N204" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O204" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P204" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q204">
         <v>695</v>
@@ -6583,8 +6586,8 @@
       <c r="G206" t="s">
         <v>47</v>
       </c>
-      <c r="H206" t="s">
-        <v>53</v>
+      <c r="H206">
+        <v>0</v>
       </c>
       <c r="I206" t="s">
         <v>53</v>
@@ -6607,13 +6610,13 @@
         <v>43</v>
       </c>
       <c r="J207">
-        <v>1.289</v>
+        <v>218.2</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>198.4</v>
       </c>
       <c r="L207">
-        <v>4.760999999999999</v>
+        <v>188.3999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -6639,28 +6642,28 @@
         <v>43</v>
       </c>
       <c r="H208" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I208" t="s">
         <v>43</v>
       </c>
       <c r="J208">
-        <v>3.052</v>
+        <v>206.9</v>
       </c>
       <c r="K208">
-        <v>0</v>
+        <v>422.1</v>
       </c>
       <c r="L208">
-        <v>5.623</v>
+        <v>238.5</v>
       </c>
       <c r="N208" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O208" t="s">
+        <v>73</v>
+      </c>
+      <c r="P208" t="s">
         <v>72</v>
-      </c>
-      <c r="P208" t="s">
-        <v>71</v>
       </c>
       <c r="Q208">
         <v>1000</v>
@@ -6699,8 +6702,8 @@
       <c r="G210" t="s">
         <v>55</v>
       </c>
-      <c r="H210" t="s">
-        <v>61</v>
+      <c r="H210">
+        <v>0</v>
       </c>
       <c r="I210" t="s">
         <v>61</v>
@@ -6723,13 +6726,13 @@
         <v>45</v>
       </c>
       <c r="J211">
-        <v>1.675</v>
+        <v>275.8</v>
       </c>
       <c r="K211">
-        <v>0</v>
+        <v>363.2</v>
       </c>
       <c r="L211">
-        <v>7</v>
+        <v>228.5</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -6755,28 +6758,28 @@
         <v>45</v>
       </c>
       <c r="H212" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I212" t="s">
         <v>45</v>
       </c>
       <c r="J212">
-        <v>3.029</v>
+        <v>283.3</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>303.9999999999999</v>
       </c>
       <c r="L212">
-        <v>5.946</v>
+        <v>310.2</v>
       </c>
       <c r="N212" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O212" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P212" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q212">
         <v>1000</v>
@@ -6833,19 +6836,19 @@
         <v>45</v>
       </c>
       <c r="H215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I215" t="s">
         <v>45</v>
       </c>
       <c r="J215">
-        <v>1.466</v>
+        <v>214.8999999999999</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>440.4999999999999</v>
       </c>
       <c r="L215">
-        <v>7.508999999999999</v>
+        <v>242.1</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -6877,22 +6880,22 @@
         <v>43</v>
       </c>
       <c r="J216">
-        <v>2.092</v>
+        <v>209.2</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>179.2</v>
       </c>
       <c r="L216">
-        <v>4.083</v>
+        <v>229.0999999999999</v>
       </c>
       <c r="N216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q216">
         <v>695</v>
@@ -6931,8 +6934,8 @@
       <c r="G218" t="s">
         <v>44</v>
       </c>
-      <c r="H218" t="s">
-        <v>54</v>
+      <c r="H218">
+        <v>0</v>
       </c>
       <c r="I218" t="s">
         <v>44</v>
@@ -6955,13 +6958,13 @@
         <v>45</v>
       </c>
       <c r="J219">
-        <v>1.494</v>
+        <v>209.2</v>
       </c>
       <c r="K219">
-        <v>0</v>
+        <v>189.2</v>
       </c>
       <c r="L219">
-        <v>4.680999999999999</v>
+        <v>219.1</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -6992,14 +6995,23 @@
       <c r="I220" t="s">
         <v>61</v>
       </c>
+      <c r="J220">
+        <v>59</v>
+      </c>
+      <c r="K220">
+        <v>127.8</v>
+      </c>
+      <c r="L220">
+        <v>108.2</v>
+      </c>
       <c r="N220" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O220" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P220" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q220">
         <v>390</v>
@@ -7061,6 +7073,15 @@
       <c r="I223" t="s">
         <v>61</v>
       </c>
+      <c r="J223">
+        <v>108.2</v>
+      </c>
+      <c r="K223">
+        <v>98.29999999999998</v>
+      </c>
+      <c r="L223">
+        <v>88.50000000000003</v>
+      </c>
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="1">
@@ -7090,14 +7111,23 @@
       <c r="I224" t="s">
         <v>61</v>
       </c>
+      <c r="J224">
+        <v>27.8</v>
+      </c>
+      <c r="K224">
+        <v>46.2</v>
+      </c>
+      <c r="L224">
+        <v>18.50000000000001</v>
+      </c>
       <c r="N224" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O224" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P224" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q224">
         <v>210</v>
@@ -7159,6 +7189,15 @@
       <c r="I227" t="s">
         <v>61</v>
       </c>
+      <c r="J227">
+        <v>27.8</v>
+      </c>
+      <c r="K227">
+        <v>46.2</v>
+      </c>
+      <c r="L227">
+        <v>18.50000000000001</v>
+      </c>
     </row>
     <row r="228" spans="1:19">
       <c r="A228" s="1">
@@ -7183,28 +7222,28 @@
         <v>44</v>
       </c>
       <c r="H228" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I228" t="s">
         <v>45</v>
       </c>
       <c r="J228">
-        <v>2.486</v>
+        <v>149.2</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>348.0000000000001</v>
       </c>
       <c r="L228">
-        <v>4.077000000000001</v>
+        <v>159.1</v>
       </c>
       <c r="N228" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O228" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P228" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q228">
         <v>718</v>
@@ -7267,13 +7306,13 @@
         <v>56</v>
       </c>
       <c r="J231">
-        <v>1.989</v>
+        <v>198.9</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>278.4000000000001</v>
       </c>
       <c r="L231">
-        <v>4.574000000000001</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/20180126_SmartCut/LinearCut/beam_3p_opti.xlsx
+++ b/20180126_SmartCut/LinearCut/beam_3p_opti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="78">
   <si>
     <t>樓層</t>
   </si>
@@ -735,10 +735,10 @@
         <v>238</v>
       </c>
       <c r="K4">
-        <v>168.6</v>
+        <v>138.8999999999999</v>
       </c>
       <c r="L4">
-        <v>198.4</v>
+        <v>228.1000000000001</v>
       </c>
       <c r="N4" t="s">
         <v>67</v>
@@ -786,8 +786,8 @@
       <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="H6" t="s">
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>45</v>
@@ -810,13 +810,13 @@
         <v>45</v>
       </c>
       <c r="J7">
-        <v>208.3</v>
+        <v>158.7</v>
       </c>
       <c r="K7">
-        <v>178.5000000000001</v>
+        <v>257.9000000000001</v>
       </c>
       <c r="L7">
-        <v>218.2</v>
+        <v>188.3999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -848,13 +848,13 @@
         <v>43</v>
       </c>
       <c r="J8">
-        <v>153.7</v>
+        <v>143.7</v>
       </c>
       <c r="K8">
-        <v>139.5</v>
+        <v>139.7</v>
       </c>
       <c r="L8">
-        <v>156.8</v>
+        <v>166.6</v>
       </c>
       <c r="N8" t="s">
         <v>68</v>
@@ -902,8 +902,8 @@
       <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>63</v>
       </c>
       <c r="I10" t="s">
         <v>53</v>
@@ -920,7 +920,7 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
@@ -929,10 +929,10 @@
         <v>173.7</v>
       </c>
       <c r="K11">
-        <v>129.3</v>
+        <v>139.1000000000001</v>
       </c>
       <c r="L11">
-        <v>147</v>
+        <v>137.1999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -967,10 +967,10 @@
         <v>180</v>
       </c>
       <c r="K12">
-        <v>208.8999999999999</v>
+        <v>199</v>
       </c>
       <c r="L12">
-        <v>218.6</v>
+        <v>228.4999999999999</v>
       </c>
       <c r="N12" t="s">
         <v>67</v>
@@ -1036,19 +1036,19 @@
         <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
       </c>
       <c r="J15">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K15">
-        <v>238.7</v>
+        <v>198.8</v>
       </c>
       <c r="L15">
-        <v>188.8</v>
+        <v>208.7</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1080,13 +1080,13 @@
         <v>43</v>
       </c>
       <c r="J16">
-        <v>196.2</v>
+        <v>176.5</v>
       </c>
       <c r="K16">
-        <v>166</v>
+        <v>195.4</v>
       </c>
       <c r="L16">
-        <v>175.3</v>
+        <v>165.6000000000001</v>
       </c>
       <c r="N16" t="s">
         <v>69</v>
@@ -1118,7 +1118,7 @@
         <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
@@ -1134,8 +1134,8 @@
       <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
-        <v>61</v>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>44</v>
@@ -1158,13 +1158,13 @@
         <v>45</v>
       </c>
       <c r="J19">
-        <v>166.7</v>
+        <v>186.3</v>
       </c>
       <c r="K19">
-        <v>195.5000000000001</v>
+        <v>146.6</v>
       </c>
       <c r="L19">
-        <v>175.3</v>
+        <v>204.6000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1199,10 +1199,10 @@
         <v>190</v>
       </c>
       <c r="K20">
-        <v>158.8999999999999</v>
+        <v>149</v>
       </c>
       <c r="L20">
-        <v>158.6</v>
+        <v>168.5</v>
       </c>
       <c r="N20" t="s">
         <v>70</v>
@@ -1312,13 +1312,13 @@
         <v>48</v>
       </c>
       <c r="J24">
-        <v>218</v>
+        <v>198.2</v>
       </c>
       <c r="K24">
-        <v>138.7</v>
+        <v>168.4000000000001</v>
       </c>
       <c r="L24">
-        <v>188.3</v>
+        <v>178.4</v>
       </c>
       <c r="N24" t="s">
         <v>69</v>
@@ -1349,8 +1349,8 @@
       <c r="G25" t="s">
         <v>48</v>
       </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" t="s">
+        <v>64</v>
       </c>
       <c r="I25" t="s">
         <v>50</v>
@@ -1366,8 +1366,8 @@
       <c r="G26" t="s">
         <v>47</v>
       </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="H26" t="s">
+        <v>63</v>
       </c>
       <c r="I26" t="s">
         <v>47</v>
@@ -1384,19 +1384,19 @@
         <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
         <v>43</v>
       </c>
       <c r="J27">
-        <v>198.2</v>
+        <v>188.3</v>
       </c>
       <c r="K27">
-        <v>148.6</v>
+        <v>168.4</v>
       </c>
       <c r="L27">
-        <v>198.2</v>
+        <v>188.3</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -1422,7 +1422,7 @@
         <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s">
         <v>49</v>
@@ -1431,10 +1431,10 @@
         <v>208.3</v>
       </c>
       <c r="K28">
-        <v>218.2</v>
+        <v>228.1</v>
       </c>
       <c r="L28">
-        <v>178.4999999999999</v>
+        <v>168.6</v>
       </c>
       <c r="N28" t="s">
         <v>67</v>
@@ -1465,8 +1465,8 @@
       <c r="G29" t="s">
         <v>50</v>
       </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>64</v>
       </c>
       <c r="I29" t="s">
         <v>64</v>
@@ -1482,8 +1482,8 @@
       <c r="G30" t="s">
         <v>51</v>
       </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>63</v>
       </c>
       <c r="I30" t="s">
         <v>53</v>
@@ -1500,19 +1500,19 @@
         <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
         <v>46</v>
       </c>
       <c r="J31">
-        <v>178.5</v>
+        <v>168.6</v>
       </c>
       <c r="K31">
-        <v>218.2</v>
+        <v>238.0000000000001</v>
       </c>
       <c r="L31">
-        <v>208.3</v>
+        <v>198.3999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -1547,10 +1547,10 @@
         <v>280.9</v>
       </c>
       <c r="K32">
-        <v>536.2</v>
+        <v>516.3000000000002</v>
       </c>
       <c r="L32">
-        <v>317.9</v>
+        <v>337.7999999999998</v>
       </c>
       <c r="N32" t="s">
         <v>71</v>
@@ -1616,19 +1616,19 @@
         <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
         <v>44</v>
       </c>
       <c r="J35">
-        <v>369.5</v>
+        <v>310.4</v>
       </c>
       <c r="K35">
-        <v>397.8999999999999</v>
+        <v>466.9</v>
       </c>
       <c r="L35">
-        <v>367.6</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -1660,13 +1660,13 @@
         <v>43</v>
       </c>
       <c r="J36">
-        <v>166.9</v>
+        <v>147.2</v>
       </c>
       <c r="K36">
-        <v>117.4</v>
+        <v>146.7</v>
       </c>
       <c r="L36">
-        <v>173.2</v>
+        <v>163.6</v>
       </c>
       <c r="N36" t="s">
         <v>69</v>
@@ -1698,7 +1698,7 @@
         <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s">
         <v>43</v>
@@ -1715,7 +1715,7 @@
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
         <v>45</v>
@@ -1738,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="J39">
-        <v>147.2</v>
+        <v>137.4</v>
       </c>
       <c r="K39">
-        <v>156.3</v>
+        <v>175.7</v>
       </c>
       <c r="L39">
-        <v>154</v>
+        <v>144.4</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -1776,13 +1776,13 @@
         <v>43</v>
       </c>
       <c r="J40">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K40">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="L40">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N40" t="s">
         <v>68</v>
@@ -1814,7 +1814,7 @@
         <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
         <v>43</v>
@@ -1830,8 +1830,8 @@
       <c r="G42" t="s">
         <v>45</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>61</v>
       </c>
       <c r="I42" t="s">
         <v>52</v>
@@ -1854,13 +1854,13 @@
         <v>45</v>
       </c>
       <c r="J43">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K43">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="L43">
-        <v>149.9999999999999</v>
+        <v>139.9999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -1895,10 +1895,10 @@
         <v>320</v>
       </c>
       <c r="K44">
-        <v>442.6999999999999</v>
+        <v>423.0000000000001</v>
       </c>
       <c r="L44">
-        <v>294.8000000000001</v>
+        <v>314.5000000000001</v>
       </c>
       <c r="N44" t="s">
         <v>71</v>
@@ -1970,13 +1970,13 @@
         <v>44</v>
       </c>
       <c r="J47">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="K47">
-        <v>632.1</v>
+        <v>423.6000000000001</v>
       </c>
       <c r="L47">
-        <v>255.4</v>
+        <v>363.9</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -2011,10 +2011,10 @@
         <v>158.3</v>
       </c>
       <c r="K48">
-        <v>148.3999999999999</v>
+        <v>138.5</v>
       </c>
       <c r="L48">
-        <v>158.3000000000001</v>
+        <v>168.2</v>
       </c>
       <c r="N48" t="s">
         <v>70</v>
@@ -2089,10 +2089,10 @@
         <v>158.3</v>
       </c>
       <c r="K51">
-        <v>148.3999999999999</v>
+        <v>138.5</v>
       </c>
       <c r="L51">
-        <v>158.3000000000001</v>
+        <v>168.2</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -2127,10 +2127,10 @@
         <v>219.1</v>
       </c>
       <c r="K52">
-        <v>169.3</v>
+        <v>179.2</v>
       </c>
       <c r="L52">
-        <v>209.1</v>
+        <v>199.2</v>
       </c>
       <c r="N52" t="s">
         <v>69</v>
@@ -2161,8 +2161,8 @@
       <c r="G53" t="s">
         <v>49</v>
       </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>64</v>
       </c>
       <c r="I53" t="s">
         <v>50</v>
@@ -2178,8 +2178,8 @@
       <c r="G54" t="s">
         <v>47</v>
       </c>
-      <c r="H54">
-        <v>0</v>
+      <c r="H54" t="s">
+        <v>63</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
@@ -2202,13 +2202,13 @@
         <v>43</v>
       </c>
       <c r="J55">
-        <v>209.1</v>
+        <v>179.2</v>
       </c>
       <c r="K55">
-        <v>179.3</v>
+        <v>219.1</v>
       </c>
       <c r="L55">
-        <v>209.1</v>
+        <v>199.2</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -2240,13 +2240,13 @@
         <v>43</v>
       </c>
       <c r="J56">
-        <v>157.1</v>
+        <v>167</v>
       </c>
       <c r="K56">
-        <v>136.8</v>
+        <v>107.3999999999999</v>
       </c>
       <c r="L56">
-        <v>146.1</v>
+        <v>165.6000000000001</v>
       </c>
       <c r="N56" t="s">
         <v>70</v>
@@ -2278,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I57" t="s">
         <v>46</v>
@@ -2294,8 +2294,8 @@
       <c r="G58" t="s">
         <v>53</v>
       </c>
-      <c r="H58">
-        <v>0</v>
+      <c r="H58" t="s">
+        <v>63</v>
       </c>
       <c r="I58" t="s">
         <v>46</v>
@@ -2318,13 +2318,13 @@
         <v>43</v>
       </c>
       <c r="J59">
-        <v>147.3</v>
+        <v>117.9</v>
       </c>
       <c r="K59">
-        <v>127.1</v>
+        <v>166.3</v>
       </c>
       <c r="L59">
-        <v>165.6000000000001</v>
+        <v>155.8</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -2356,13 +2356,13 @@
         <v>48</v>
       </c>
       <c r="J60">
-        <v>197.3</v>
+        <v>167.5</v>
       </c>
       <c r="K60">
-        <v>188.9</v>
+        <v>228.7</v>
       </c>
       <c r="L60">
-        <v>218.8</v>
+        <v>208.8</v>
       </c>
       <c r="N60" t="s">
         <v>69</v>
@@ -2393,8 +2393,8 @@
       <c r="G61" t="s">
         <v>50</v>
       </c>
-      <c r="H61">
-        <v>0</v>
+      <c r="H61" t="s">
+        <v>64</v>
       </c>
       <c r="I61" t="s">
         <v>48</v>
@@ -2410,8 +2410,8 @@
       <c r="G62" t="s">
         <v>46</v>
       </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="H62" t="s">
+        <v>63</v>
       </c>
       <c r="I62" t="s">
         <v>53</v>
@@ -2428,19 +2428,19 @@
         <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
         <v>43</v>
       </c>
       <c r="J63">
-        <v>227.2</v>
+        <v>207.3</v>
       </c>
       <c r="K63">
-        <v>188.9</v>
+        <v>218.6999999999999</v>
       </c>
       <c r="L63">
-        <v>188.8999999999999</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -2475,10 +2475,10 @@
         <v>226.2</v>
       </c>
       <c r="K64">
-        <v>403.1</v>
+        <v>373.6</v>
       </c>
       <c r="L64">
-        <v>255.7000000000001</v>
+        <v>285.2000000000001</v>
       </c>
       <c r="N64" t="s">
         <v>72</v>
@@ -2553,10 +2553,10 @@
         <v>226.2</v>
       </c>
       <c r="K67">
-        <v>481.8000000000001</v>
+        <v>422.8000000000001</v>
       </c>
       <c r="L67">
-        <v>177.0000000000001</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -2591,10 +2591,10 @@
         <v>236.2</v>
       </c>
       <c r="K68">
-        <v>423.1</v>
+        <v>393.5999999999999</v>
       </c>
       <c r="L68">
-        <v>265.7</v>
+        <v>295.2000000000001</v>
       </c>
       <c r="N68" t="s">
         <v>72</v>
@@ -2669,10 +2669,10 @@
         <v>216.5</v>
       </c>
       <c r="K71">
-        <v>482.2</v>
+        <v>423.1</v>
       </c>
       <c r="L71">
-        <v>226.3</v>
+        <v>285.4</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -2707,10 +2707,10 @@
         <v>200</v>
       </c>
       <c r="K72">
-        <v>198.9</v>
+        <v>189.0000000000001</v>
       </c>
       <c r="L72">
-        <v>218.6</v>
+        <v>228.4999999999999</v>
       </c>
       <c r="N72" t="s">
         <v>69</v>
@@ -2759,7 +2759,7 @@
         <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I74" t="s">
         <v>43</v>
@@ -2782,13 +2782,13 @@
         <v>43</v>
       </c>
       <c r="J75">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K75">
-        <v>238.7</v>
+        <v>268.7</v>
       </c>
       <c r="L75">
-        <v>188.8</v>
+        <v>178.7999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -2814,7 +2814,7 @@
         <v>43</v>
       </c>
       <c r="H76" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
         <v>43</v>
@@ -2823,10 +2823,10 @@
         <v>228.1</v>
       </c>
       <c r="K76">
-        <v>178.5</v>
+        <v>188.5</v>
       </c>
       <c r="L76">
-        <v>198.4</v>
+        <v>188.3999999999999</v>
       </c>
       <c r="N76" t="s">
         <v>67</v>
@@ -2857,8 +2857,8 @@
       <c r="G77" t="s">
         <v>43</v>
       </c>
-      <c r="H77">
-        <v>0</v>
+      <c r="H77" t="s">
+        <v>63</v>
       </c>
       <c r="I77" t="s">
         <v>53</v>
@@ -2874,8 +2874,8 @@
       <c r="G78" t="s">
         <v>56</v>
       </c>
-      <c r="H78">
-        <v>0</v>
+      <c r="H78" t="s">
+        <v>61</v>
       </c>
       <c r="I78" t="s">
         <v>45</v>
@@ -2892,19 +2892,19 @@
         <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s">
         <v>45</v>
       </c>
       <c r="J79">
+        <v>198.4</v>
+      </c>
+      <c r="K79">
+        <v>198.3</v>
+      </c>
+      <c r="L79">
         <v>208.3</v>
-      </c>
-      <c r="K79">
-        <v>178.5000000000001</v>
-      </c>
-      <c r="L79">
-        <v>218.2</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -2936,13 +2936,13 @@
         <v>43</v>
       </c>
       <c r="J80">
-        <v>153.7</v>
+        <v>143.7</v>
       </c>
       <c r="K80">
-        <v>139.5</v>
+        <v>139.7</v>
       </c>
       <c r="L80">
-        <v>156.8</v>
+        <v>166.6</v>
       </c>
       <c r="N80" t="s">
         <v>68</v>
@@ -3017,10 +3017,10 @@
         <v>173.7</v>
       </c>
       <c r="K83">
-        <v>129.3</v>
+        <v>109.7</v>
       </c>
       <c r="L83">
-        <v>147</v>
+        <v>166.6</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -3052,13 +3052,13 @@
         <v>43</v>
       </c>
       <c r="J84">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K84">
-        <v>169</v>
+        <v>208.8999999999999</v>
       </c>
       <c r="L84">
-        <v>228.4999999999999</v>
+        <v>218.6</v>
       </c>
       <c r="N84" t="s">
         <v>67</v>
@@ -3089,8 +3089,8 @@
       <c r="G85" t="s">
         <v>46</v>
       </c>
-      <c r="H85">
-        <v>0</v>
+      <c r="H85" t="s">
+        <v>63</v>
       </c>
       <c r="I85" t="s">
         <v>43</v>
@@ -3124,19 +3124,19 @@
         <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I87" t="s">
         <v>45</v>
       </c>
       <c r="J87">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K87">
-        <v>248.7</v>
+        <v>208.8</v>
       </c>
       <c r="L87">
-        <v>188.8</v>
+        <v>208.7</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -3168,13 +3168,13 @@
         <v>43</v>
       </c>
       <c r="J88">
-        <v>206</v>
+        <v>186.3</v>
       </c>
       <c r="K88">
-        <v>146.4</v>
+        <v>175.9</v>
       </c>
       <c r="L88">
-        <v>185.1000000000001</v>
+        <v>175.3</v>
       </c>
       <c r="N88" t="s">
         <v>69</v>
@@ -3205,8 +3205,8 @@
       <c r="G89" t="s">
         <v>43</v>
       </c>
-      <c r="H89">
-        <v>0</v>
+      <c r="H89" t="s">
+        <v>63</v>
       </c>
       <c r="I89" t="s">
         <v>46</v>
@@ -3222,8 +3222,8 @@
       <c r="G90" t="s">
         <v>56</v>
       </c>
-      <c r="H90">
-        <v>0</v>
+      <c r="H90" t="s">
+        <v>61</v>
       </c>
       <c r="I90" t="s">
         <v>56</v>
@@ -3240,19 +3240,19 @@
         <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I91" t="s">
         <v>45</v>
       </c>
       <c r="J91">
-        <v>186.3</v>
+        <v>176.5</v>
       </c>
       <c r="K91">
-        <v>156.4</v>
+        <v>175.9</v>
       </c>
       <c r="L91">
-        <v>194.8</v>
+        <v>185.1000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -3287,10 +3287,10 @@
         <v>190</v>
       </c>
       <c r="K92">
-        <v>168.8000000000001</v>
+        <v>158.8999999999999</v>
       </c>
       <c r="L92">
-        <v>148.6999999999999</v>
+        <v>158.6</v>
       </c>
       <c r="N92" t="s">
         <v>68</v>
@@ -3338,8 +3338,8 @@
       <c r="G94" t="s">
         <v>46</v>
       </c>
-      <c r="H94">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>63</v>
       </c>
       <c r="I94" t="s">
         <v>47</v>
@@ -3356,19 +3356,19 @@
         <v>43</v>
       </c>
       <c r="H95" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
         <v>43</v>
       </c>
       <c r="J95">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K95">
-        <v>149.2</v>
+        <v>169.1</v>
       </c>
       <c r="L95">
-        <v>188.3</v>
+        <v>178.3999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -3400,13 +3400,13 @@
         <v>48</v>
       </c>
       <c r="J96">
-        <v>208.1</v>
+        <v>188.3</v>
       </c>
       <c r="K96">
-        <v>158.5</v>
+        <v>188.2</v>
       </c>
       <c r="L96">
-        <v>178.4</v>
+        <v>168.5000000000001</v>
       </c>
       <c r="N96" t="s">
         <v>69</v>
@@ -3437,8 +3437,8 @@
       <c r="G97" t="s">
         <v>49</v>
       </c>
-      <c r="H97">
-        <v>0</v>
+      <c r="H97" t="s">
+        <v>64</v>
       </c>
       <c r="I97" t="s">
         <v>62</v>
@@ -3454,8 +3454,8 @@
       <c r="G98" t="s">
         <v>46</v>
       </c>
-      <c r="H98">
-        <v>0</v>
+      <c r="H98" t="s">
+        <v>63</v>
       </c>
       <c r="I98" t="s">
         <v>46</v>
@@ -3472,19 +3472,19 @@
         <v>43</v>
       </c>
       <c r="H99" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
         <v>43</v>
       </c>
       <c r="J99">
-        <v>188.3</v>
+        <v>178.4</v>
       </c>
       <c r="K99">
-        <v>168.4</v>
+        <v>188.2</v>
       </c>
       <c r="L99">
-        <v>188.3</v>
+        <v>178.4</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -3519,10 +3519,10 @@
         <v>198.4</v>
       </c>
       <c r="K100">
-        <v>237.9999999999999</v>
+        <v>178.5</v>
       </c>
       <c r="L100">
-        <v>168.6</v>
+        <v>228.1</v>
       </c>
       <c r="N100" t="s">
         <v>67</v>
@@ -3570,8 +3570,8 @@
       <c r="G102" t="s">
         <v>57</v>
       </c>
-      <c r="H102">
-        <v>0</v>
+      <c r="H102" t="s">
+        <v>61</v>
       </c>
       <c r="I102" t="s">
         <v>56</v>
@@ -3588,19 +3588,19 @@
         <v>56</v>
       </c>
       <c r="H103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I103" t="s">
         <v>56</v>
       </c>
       <c r="J103">
-        <v>198.4</v>
+        <v>178.5</v>
       </c>
       <c r="K103">
-        <v>188.4</v>
+        <v>218.2</v>
       </c>
       <c r="L103">
-        <v>218.2</v>
+        <v>208.3</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -3635,10 +3635,10 @@
         <v>271.1</v>
       </c>
       <c r="K104">
-        <v>555.9</v>
+        <v>536</v>
       </c>
       <c r="L104">
-        <v>308</v>
+        <v>327.9</v>
       </c>
       <c r="N104" t="s">
         <v>71</v>
@@ -3704,19 +3704,19 @@
         <v>44</v>
       </c>
       <c r="H107" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I107" t="s">
         <v>44</v>
       </c>
       <c r="J107">
-        <v>339.9</v>
+        <v>271.1</v>
       </c>
       <c r="K107">
-        <v>507</v>
+        <v>585.6999999999999</v>
       </c>
       <c r="L107">
-        <v>288.1</v>
+        <v>278.2</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -3748,13 +3748,13 @@
         <v>43</v>
       </c>
       <c r="J108">
-        <v>147.2</v>
+        <v>166.9</v>
       </c>
       <c r="K108">
-        <v>156.3</v>
+        <v>117.4</v>
       </c>
       <c r="L108">
-        <v>154</v>
+        <v>173.2</v>
       </c>
       <c r="N108" t="s">
         <v>69</v>
@@ -3786,7 +3786,7 @@
         <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I109" t="s">
         <v>47</v>
@@ -3803,7 +3803,7 @@
         <v>44</v>
       </c>
       <c r="H110" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I110" t="s">
         <v>44</v>
@@ -3820,19 +3820,19 @@
         <v>45</v>
       </c>
       <c r="H111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I111" t="s">
         <v>45</v>
       </c>
       <c r="J111">
-        <v>127.6</v>
+        <v>157</v>
       </c>
       <c r="K111">
-        <v>195.2</v>
+        <v>136.9</v>
       </c>
       <c r="L111">
-        <v>134.7</v>
+        <v>163.6</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -3867,10 +3867,10 @@
         <v>130</v>
       </c>
       <c r="K112">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L112">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N112" t="s">
         <v>68</v>
@@ -3902,7 +3902,7 @@
         <v>58</v>
       </c>
       <c r="H113" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I113" t="s">
         <v>47</v>
@@ -3945,10 +3945,10 @@
         <v>160</v>
       </c>
       <c r="K115">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L115">
-        <v>139.9999999999999</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -3974,19 +3974,19 @@
         <v>45</v>
       </c>
       <c r="H116" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I116" t="s">
         <v>45</v>
       </c>
       <c r="J116">
-        <v>309.9999999999999</v>
+        <v>290</v>
       </c>
       <c r="K116">
-        <v>461.9000000000001</v>
+        <v>491.8</v>
       </c>
       <c r="L116">
-        <v>285.6</v>
+        <v>275.7000000000002</v>
       </c>
       <c r="N116" t="s">
         <v>71</v>
@@ -4052,7 +4052,7 @@
         <v>44</v>
       </c>
       <c r="H119" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I119" t="s">
         <v>45</v>
@@ -4061,10 +4061,10 @@
         <v>220</v>
       </c>
       <c r="K119">
-        <v>502.7000000000001</v>
+        <v>512.5999999999999</v>
       </c>
       <c r="L119">
-        <v>334.8</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -4099,10 +4099,10 @@
         <v>158.3</v>
       </c>
       <c r="K120">
-        <v>148.3999999999999</v>
+        <v>138.5</v>
       </c>
       <c r="L120">
-        <v>158.3000000000001</v>
+        <v>168.2</v>
       </c>
       <c r="N120" t="s">
         <v>68</v>
@@ -4151,7 +4151,7 @@
         <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I122" t="s">
         <v>43</v>
@@ -4174,13 +4174,13 @@
         <v>43</v>
       </c>
       <c r="J123">
-        <v>158.3</v>
+        <v>138.5</v>
       </c>
       <c r="K123">
-        <v>148.3999999999999</v>
+        <v>178.1</v>
       </c>
       <c r="L123">
-        <v>158.3000000000001</v>
+        <v>148.4</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -4212,13 +4212,13 @@
         <v>48</v>
       </c>
       <c r="J124">
-        <v>219.1</v>
+        <v>199.2</v>
       </c>
       <c r="K124">
-        <v>179.2</v>
+        <v>209.1000000000001</v>
       </c>
       <c r="L124">
-        <v>199.2</v>
+        <v>189.1999999999999</v>
       </c>
       <c r="N124" t="s">
         <v>67</v>
@@ -4249,8 +4249,8 @@
       <c r="G125" t="s">
         <v>49</v>
       </c>
-      <c r="H125">
-        <v>0</v>
+      <c r="H125" t="s">
+        <v>64</v>
       </c>
       <c r="I125" t="s">
         <v>50</v>
@@ -4266,8 +4266,8 @@
       <c r="G126" t="s">
         <v>46</v>
       </c>
-      <c r="H126">
-        <v>0</v>
+      <c r="H126" t="s">
+        <v>63</v>
       </c>
       <c r="I126" t="s">
         <v>46</v>
@@ -4284,7 +4284,7 @@
         <v>43</v>
       </c>
       <c r="H127" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I127" t="s">
         <v>43</v>
@@ -4293,10 +4293,10 @@
         <v>199.2</v>
       </c>
       <c r="K127">
-        <v>189.2</v>
+        <v>209.1000000000001</v>
       </c>
       <c r="L127">
-        <v>209.1</v>
+        <v>189.1999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -4331,10 +4331,10 @@
         <v>167</v>
       </c>
       <c r="K128">
-        <v>126.9</v>
+        <v>117.2</v>
       </c>
       <c r="L128">
-        <v>146.1</v>
+        <v>155.8</v>
       </c>
       <c r="N128" t="s">
         <v>68</v>
@@ -4382,8 +4382,8 @@
       <c r="G130" t="s">
         <v>52</v>
       </c>
-      <c r="H130">
-        <v>0</v>
+      <c r="H130" t="s">
+        <v>61</v>
       </c>
       <c r="I130" t="s">
         <v>44</v>
@@ -4406,13 +4406,13 @@
         <v>45</v>
       </c>
       <c r="J131">
-        <v>147.3</v>
+        <v>127.7</v>
       </c>
       <c r="K131">
-        <v>127.1</v>
+        <v>156.5</v>
       </c>
       <c r="L131">
-        <v>165.6000000000001</v>
+        <v>155.8</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -4447,10 +4447,10 @@
         <v>187.4</v>
       </c>
       <c r="K132">
-        <v>198.8</v>
+        <v>188.9</v>
       </c>
       <c r="L132">
-        <v>218.8</v>
+        <v>228.7</v>
       </c>
       <c r="N132" t="s">
         <v>68</v>
@@ -4498,8 +4498,8 @@
       <c r="G134" t="s">
         <v>49</v>
       </c>
-      <c r="H134">
-        <v>0</v>
+      <c r="H134" t="s">
+        <v>64</v>
       </c>
       <c r="I134" t="s">
         <v>62</v>
@@ -4516,19 +4516,19 @@
         <v>48</v>
       </c>
       <c r="H135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I135" t="s">
         <v>48</v>
       </c>
       <c r="J135">
-        <v>227.2</v>
+        <v>207.3</v>
       </c>
       <c r="K135">
-        <v>188.9</v>
+        <v>218.6999999999999</v>
       </c>
       <c r="L135">
-        <v>188.8999999999999</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -4554,19 +4554,19 @@
         <v>43</v>
       </c>
       <c r="H136" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I136" t="s">
         <v>43</v>
       </c>
       <c r="J136">
-        <v>226.2</v>
+        <v>295</v>
       </c>
       <c r="K136">
-        <v>404.1</v>
+        <v>256.2</v>
       </c>
       <c r="L136">
-        <v>237.2000000000001</v>
+        <v>316.3</v>
       </c>
       <c r="N136" t="s">
         <v>72</v>
@@ -4641,10 +4641,10 @@
         <v>265.5</v>
       </c>
       <c r="K139">
-        <v>384.6000000000001</v>
+        <v>345</v>
       </c>
       <c r="L139">
-        <v>217.3999999999999</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -4679,10 +4679,10 @@
         <v>285.4</v>
       </c>
       <c r="K140">
-        <v>337.1</v>
+        <v>327.1</v>
       </c>
       <c r="L140">
-        <v>300</v>
+        <v>309.9999999999999</v>
       </c>
       <c r="N140" t="s">
         <v>73</v>
@@ -4757,10 +4757,10 @@
         <v>236.2</v>
       </c>
       <c r="K143">
-        <v>426.3</v>
+        <v>376.3</v>
       </c>
       <c r="L143">
-        <v>259.9999999999999</v>
+        <v>309.9999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -4795,10 +4795,10 @@
         <v>210</v>
       </c>
       <c r="K144">
-        <v>188.9</v>
+        <v>179.0000000000001</v>
       </c>
       <c r="L144">
-        <v>218.6</v>
+        <v>228.4999999999999</v>
       </c>
       <c r="N144" t="s">
         <v>69</v>
@@ -4847,7 +4847,7 @@
         <v>43</v>
       </c>
       <c r="H146" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I146" t="s">
         <v>43</v>
@@ -4870,13 +4870,13 @@
         <v>43</v>
       </c>
       <c r="J147">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K147">
-        <v>228.7</v>
+        <v>258.7</v>
       </c>
       <c r="L147">
-        <v>188.8</v>
+        <v>178.7999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -4911,10 +4911,10 @@
         <v>230.1</v>
       </c>
       <c r="K148">
-        <v>177.5</v>
+        <v>147.9</v>
       </c>
       <c r="L148">
-        <v>187.4</v>
+        <v>217</v>
       </c>
       <c r="N148" t="s">
         <v>69</v>
@@ -4980,19 +4980,19 @@
         <v>45</v>
       </c>
       <c r="H151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I151" t="s">
         <v>45</v>
       </c>
       <c r="J151">
-        <v>162</v>
+        <v>181.1</v>
       </c>
       <c r="K151">
-        <v>245.6000000000001</v>
+        <v>206.8</v>
       </c>
       <c r="L151">
-        <v>187.4</v>
+        <v>207.1000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -5024,13 +5024,13 @@
         <v>43</v>
       </c>
       <c r="J152">
-        <v>143.7</v>
+        <v>123.7</v>
       </c>
       <c r="K152">
-        <v>120</v>
+        <v>149.6</v>
       </c>
       <c r="L152">
-        <v>171.3</v>
+        <v>161.7</v>
       </c>
       <c r="N152" t="s">
         <v>68</v>
@@ -5061,8 +5061,8 @@
       <c r="G153" t="s">
         <v>58</v>
       </c>
-      <c r="H153">
-        <v>0</v>
+      <c r="H153" t="s">
+        <v>63</v>
       </c>
       <c r="I153" t="s">
         <v>46</v>
@@ -5078,8 +5078,8 @@
       <c r="G154" t="s">
         <v>45</v>
       </c>
-      <c r="H154">
-        <v>0</v>
+      <c r="H154" t="s">
+        <v>61</v>
       </c>
       <c r="I154" t="s">
         <v>54</v>
@@ -5096,19 +5096,19 @@
         <v>45</v>
       </c>
       <c r="H155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I155" t="s">
         <v>45</v>
       </c>
       <c r="J155">
-        <v>173.7</v>
+        <v>163.7</v>
       </c>
       <c r="K155">
-        <v>137.6</v>
+        <v>157.1000000000001</v>
       </c>
       <c r="L155">
-        <v>123.7</v>
+        <v>114.2</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -5140,13 +5140,13 @@
         <v>43</v>
       </c>
       <c r="J156">
+        <v>188.4</v>
+      </c>
+      <c r="K156">
+        <v>188.4</v>
+      </c>
+      <c r="L156">
         <v>208.2</v>
-      </c>
-      <c r="K156">
-        <v>158.7</v>
-      </c>
-      <c r="L156">
-        <v>218.1000000000001</v>
       </c>
       <c r="N156" t="s">
         <v>67</v>
@@ -5177,8 +5177,8 @@
       <c r="G157" t="s">
         <v>46</v>
       </c>
-      <c r="H157">
-        <v>0</v>
+      <c r="H157" t="s">
+        <v>63</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5195,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="H158" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -5212,19 +5212,19 @@
         <v>45</v>
       </c>
       <c r="H159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
       </c>
       <c r="J159">
-        <v>158.6</v>
+        <v>188.4</v>
       </c>
       <c r="K159">
-        <v>247.9</v>
+        <v>178.4999999999999</v>
       </c>
       <c r="L159">
-        <v>178.5</v>
+        <v>218.1000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -5250,19 +5250,19 @@
         <v>43</v>
       </c>
       <c r="H160" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I160" t="s">
         <v>43</v>
       </c>
       <c r="J160">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K160">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L160">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N160" t="s">
         <v>67</v>
@@ -5293,8 +5293,8 @@
       <c r="G161" t="s">
         <v>47</v>
       </c>
-      <c r="H161">
-        <v>0</v>
+      <c r="H161" t="s">
+        <v>63</v>
       </c>
       <c r="I161" t="s">
         <v>51</v>
@@ -5328,19 +5328,19 @@
         <v>45</v>
       </c>
       <c r="H163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
       </c>
       <c r="J163">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K163">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="L163">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -5375,10 +5375,10 @@
         <v>193.5</v>
       </c>
       <c r="K164">
-        <v>127.2</v>
+        <v>117.3999999999999</v>
       </c>
       <c r="L164">
-        <v>176.8</v>
+        <v>186.6000000000001</v>
       </c>
       <c r="N164" t="s">
         <v>69</v>
@@ -5426,8 +5426,8 @@
       <c r="G166" t="s">
         <v>57</v>
       </c>
-      <c r="H166">
-        <v>0</v>
+      <c r="H166" t="s">
+        <v>61</v>
       </c>
       <c r="I166" t="s">
         <v>56</v>
@@ -5444,19 +5444,19 @@
         <v>45</v>
       </c>
       <c r="H167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
       </c>
       <c r="J167">
-        <v>145.1</v>
+        <v>135.4</v>
       </c>
       <c r="K167">
-        <v>175.6</v>
+        <v>195.1</v>
       </c>
       <c r="L167">
-        <v>176.8</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -5491,10 +5491,10 @@
         <v>186.5</v>
       </c>
       <c r="K168">
-        <v>178.5</v>
+        <v>168.5</v>
       </c>
       <c r="L168">
-        <v>160.0000000000001</v>
+        <v>170</v>
       </c>
       <c r="N168" t="s">
         <v>69</v>
@@ -5569,10 +5569,10 @@
         <v>147.2</v>
       </c>
       <c r="K171">
-        <v>237.8</v>
+        <v>227.8</v>
       </c>
       <c r="L171">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -5607,10 +5607,10 @@
         <v>190.6</v>
       </c>
       <c r="K172">
-        <v>219.7</v>
+        <v>179.7</v>
       </c>
       <c r="L172">
-        <v>169.6999999999999</v>
+        <v>209.7</v>
       </c>
       <c r="N172" t="s">
         <v>67</v>
@@ -5658,8 +5658,8 @@
       <c r="G174" t="s">
         <v>54</v>
       </c>
-      <c r="H174">
-        <v>0</v>
+      <c r="H174" t="s">
+        <v>61</v>
       </c>
       <c r="I174" t="s">
         <v>57</v>
@@ -5676,19 +5676,19 @@
         <v>56</v>
       </c>
       <c r="H175" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I175" t="s">
         <v>56</v>
       </c>
       <c r="J175">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K175">
-        <v>228.3</v>
+        <v>257.3</v>
       </c>
       <c r="L175">
-        <v>189.6999999999999</v>
+        <v>179.7</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -5723,10 +5723,10 @@
         <v>278.3</v>
       </c>
       <c r="K176">
-        <v>515.4999999999999</v>
+        <v>485.6</v>
       </c>
       <c r="L176">
-        <v>328.7000000000001</v>
+        <v>358.6</v>
       </c>
       <c r="N176" t="s">
         <v>71</v>
@@ -5801,10 +5801,10 @@
         <v>366.8</v>
       </c>
       <c r="K179">
-        <v>456.9</v>
+        <v>367.2</v>
       </c>
       <c r="L179">
-        <v>298.8</v>
+        <v>388.5</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -5890,8 +5890,8 @@
       <c r="G182" t="s">
         <v>56</v>
       </c>
-      <c r="H182">
-        <v>0</v>
+      <c r="H182" t="s">
+        <v>61</v>
       </c>
       <c r="I182" t="s">
         <v>44</v>
@@ -5914,13 +5914,13 @@
         <v>45</v>
       </c>
       <c r="J183">
-        <v>155.6</v>
+        <v>136.1</v>
       </c>
       <c r="K183">
-        <v>126.6</v>
+        <v>156.0000000000001</v>
       </c>
       <c r="L183">
-        <v>167.8</v>
+        <v>157.9</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -5952,13 +5952,13 @@
         <v>43</v>
       </c>
       <c r="J184">
-        <v>79.19999999999999</v>
+        <v>118.8</v>
       </c>
       <c r="K184">
-        <v>218.3</v>
+        <v>168.7</v>
       </c>
       <c r="L184">
-        <v>149.9999999999999</v>
+        <v>160</v>
       </c>
       <c r="N184" t="s">
         <v>68</v>
@@ -6033,10 +6033,10 @@
         <v>158.5</v>
       </c>
       <c r="K187">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="L187">
-        <v>139.9999999999999</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -6071,10 +6071,10 @@
         <v>293.3</v>
       </c>
       <c r="K188">
-        <v>491.7</v>
+        <v>471.7</v>
       </c>
       <c r="L188">
-        <v>272.4999999999999</v>
+        <v>292.5000000000001</v>
       </c>
       <c r="N188" t="s">
         <v>71</v>
@@ -6149,10 +6149,10 @@
         <v>206.1</v>
       </c>
       <c r="K191">
-        <v>528.9</v>
+        <v>458.9</v>
       </c>
       <c r="L191">
-        <v>322.5000000000001</v>
+        <v>392.5000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -6303,10 +6303,10 @@
         <v>188.3</v>
       </c>
       <c r="K196">
-        <v>168.4</v>
+        <v>158.4999999999999</v>
       </c>
       <c r="L196">
-        <v>188.3</v>
+        <v>198.2</v>
       </c>
       <c r="N196" t="s">
         <v>69</v>
@@ -6381,10 +6381,10 @@
         <v>178.4</v>
       </c>
       <c r="K199">
-        <v>188.2</v>
+        <v>178.3</v>
       </c>
       <c r="L199">
-        <v>178.4</v>
+        <v>188.3</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -6532,13 +6532,13 @@
         <v>48</v>
       </c>
       <c r="J204">
-        <v>188.4</v>
+        <v>158.7</v>
       </c>
       <c r="K204">
-        <v>198.4</v>
+        <v>237.9999999999999</v>
       </c>
       <c r="L204">
-        <v>218.2</v>
+        <v>208.3</v>
       </c>
       <c r="N204" t="s">
         <v>67</v>
@@ -6569,8 +6569,8 @@
       <c r="G205" t="s">
         <v>62</v>
       </c>
-      <c r="H205">
-        <v>0</v>
+      <c r="H205" t="s">
+        <v>64</v>
       </c>
       <c r="I205" t="s">
         <v>49</v>
@@ -6586,8 +6586,8 @@
       <c r="G206" t="s">
         <v>47</v>
       </c>
-      <c r="H206">
-        <v>0</v>
+      <c r="H206" t="s">
+        <v>63</v>
       </c>
       <c r="I206" t="s">
         <v>53</v>
@@ -6604,19 +6604,19 @@
         <v>43</v>
       </c>
       <c r="H207" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I207" t="s">
         <v>43</v>
       </c>
       <c r="J207">
+        <v>208.3</v>
+      </c>
+      <c r="K207">
         <v>218.2</v>
       </c>
-      <c r="K207">
-        <v>198.4</v>
-      </c>
       <c r="L207">
-        <v>188.3999999999999</v>
+        <v>178.4999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -6642,19 +6642,19 @@
         <v>43</v>
       </c>
       <c r="H208" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I208" t="s">
         <v>43</v>
       </c>
       <c r="J208">
-        <v>206.9</v>
+        <v>266</v>
       </c>
       <c r="K208">
-        <v>422.1</v>
+        <v>304.0000000000001</v>
       </c>
       <c r="L208">
-        <v>238.5</v>
+        <v>297.4999999999999</v>
       </c>
       <c r="N208" t="s">
         <v>72</v>
@@ -6729,10 +6729,10 @@
         <v>275.8</v>
       </c>
       <c r="K211">
-        <v>363.2</v>
+        <v>323.6</v>
       </c>
       <c r="L211">
-        <v>228.5</v>
+        <v>268.1</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -6845,10 +6845,10 @@
         <v>214.8999999999999</v>
       </c>
       <c r="K215">
-        <v>440.4999999999999</v>
+        <v>392.0000000000001</v>
       </c>
       <c r="L215">
-        <v>242.1</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -6880,13 +6880,13 @@
         <v>43</v>
       </c>
       <c r="J216">
+        <v>189.2</v>
+      </c>
+      <c r="K216">
         <v>209.2</v>
       </c>
-      <c r="K216">
-        <v>179.2</v>
-      </c>
       <c r="L216">
-        <v>229.0999999999999</v>
+        <v>219.1</v>
       </c>
       <c r="N216" t="s">
         <v>67</v>
@@ -6917,8 +6917,8 @@
       <c r="G217" t="s">
         <v>46</v>
       </c>
-      <c r="H217">
-        <v>0</v>
+      <c r="H217" t="s">
+        <v>63</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6934,8 +6934,8 @@
       <c r="G218" t="s">
         <v>44</v>
       </c>
-      <c r="H218">
-        <v>0</v>
+      <c r="H218" t="s">
+        <v>61</v>
       </c>
       <c r="I218" t="s">
         <v>44</v>
@@ -6952,19 +6952,19 @@
         <v>45</v>
       </c>
       <c r="H219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I219" t="s">
         <v>45</v>
       </c>
       <c r="J219">
+        <v>199.2</v>
+      </c>
+      <c r="K219">
+        <v>209.1</v>
+      </c>
+      <c r="L219">
         <v>209.2</v>
-      </c>
-      <c r="K219">
-        <v>189.2</v>
-      </c>
-      <c r="L219">
-        <v>219.1</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -6995,15 +6995,6 @@
       <c r="I220" t="s">
         <v>61</v>
       </c>
-      <c r="J220">
-        <v>59</v>
-      </c>
-      <c r="K220">
-        <v>127.8</v>
-      </c>
-      <c r="L220">
-        <v>108.2</v>
-      </c>
       <c r="N220" t="s">
         <v>74</v>
       </c>
@@ -7073,15 +7064,6 @@
       <c r="I223" t="s">
         <v>61</v>
       </c>
-      <c r="J223">
-        <v>108.2</v>
-      </c>
-      <c r="K223">
-        <v>98.29999999999998</v>
-      </c>
-      <c r="L223">
-        <v>88.50000000000003</v>
-      </c>
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="1">
@@ -7111,15 +7093,6 @@
       <c r="I224" t="s">
         <v>61</v>
       </c>
-      <c r="J224">
-        <v>27.8</v>
-      </c>
-      <c r="K224">
-        <v>46.2</v>
-      </c>
-      <c r="L224">
-        <v>18.50000000000001</v>
-      </c>
       <c r="N224" t="s">
         <v>74</v>
       </c>
@@ -7189,15 +7162,6 @@
       <c r="I227" t="s">
         <v>61</v>
       </c>
-      <c r="J227">
-        <v>27.8</v>
-      </c>
-      <c r="K227">
-        <v>46.2</v>
-      </c>
-      <c r="L227">
-        <v>18.50000000000001</v>
-      </c>
     </row>
     <row r="228" spans="1:19">
       <c r="A228" s="1">
@@ -7231,10 +7195,10 @@
         <v>149.2</v>
       </c>
       <c r="K228">
-        <v>348.0000000000001</v>
+        <v>288.4</v>
       </c>
       <c r="L228">
-        <v>159.1</v>
+        <v>218.7</v>
       </c>
       <c r="N228" t="s">
         <v>75</v>
@@ -7300,7 +7264,7 @@
         <v>56</v>
       </c>
       <c r="H231" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I231" t="s">
         <v>56</v>
@@ -7309,10 +7273,10 @@
         <v>198.9</v>
       </c>
       <c r="K231">
-        <v>278.4000000000001</v>
+        <v>288.4</v>
       </c>
       <c r="L231">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
